--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1503.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1503.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.5665934084541</v>
+        <v>1.200234174728394</v>
       </c>
       <c r="B1">
-        <v>2.5394220028162</v>
+        <v>1.877100467681885</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.516806125640869</v>
       </c>
       <c r="D1">
-        <v>1.267622017615303</v>
+        <v>1.578817009925842</v>
       </c>
       <c r="E1">
-        <v>0.6639227540974719</v>
+        <v>0.5272939801216125</v>
       </c>
     </row>
   </sheetData>
